--- a/Parameters/Multifactor.xlsx
+++ b/Parameters/Multifactor.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricca\Desktop\Magistrale\Esami\Regression\Project_Banks\Work_Regression\Parameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E024108E-4BCB-4DC8-8F05-B640CB2817FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -61,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +131,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,14 +428,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -441,41 +460,41 @@
         <v>-0.2888</v>
       </c>
       <c r="C2">
-        <v>1.0922</v>
+        <v>1.0922000000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.29480000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.5735</v>
+        <v>-0.57350000000000001</v>
       </c>
       <c r="C3">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.31719999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2386</v>
+        <v>0.23860000000000001</v>
       </c>
       <c r="C4">
-        <v>1.1663</v>
+        <v>1.1662999999999999</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -484,24 +503,24 @@
         <v>0.4733</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.0644</v>
+        <v>-6.4399999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.831</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,21 +528,21 @@
         <v>-1.3162</v>
       </c>
       <c r="C6">
-        <v>1.3961</v>
+        <v>1.3960999999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.40770000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4055</v>
+        <v>0.40550000000000003</v>
       </c>
       <c r="C7">
         <v>1.1271</v>
@@ -532,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,16 +562,16 @@
         <v>-0.7974</v>
       </c>
       <c r="C8">
-        <v>1.7492</v>
+        <v>1.7492000000000001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.56730000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,15 +585,15 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.34570000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.3021</v>
+        <v>-0.30209999999999998</v>
       </c>
       <c r="C10">
         <v>1.0904</v>
@@ -583,15 +602,15 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.29830000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.718</v>
+        <v>-0.71799999999999997</v>
       </c>
       <c r="C11">
         <v>1.121</v>
@@ -600,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3436</v>
+        <v>0.34360000000000002</v>
       </c>
     </row>
   </sheetData>
